--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1129">
   <si>
     <t>Nome</t>
   </si>
@@ -3380,6 +3380,15 @@
   </si>
   <si>
     <t>B-25</t>
+  </si>
+  <si>
+    <t>ROBERTA KELY MEDEIROS MORAES</t>
+  </si>
+  <si>
+    <t>QMU3H90</t>
+  </si>
+  <si>
+    <t>A-21</t>
   </si>
   <si>
     <t>WLINO DE JESUS FIGUEIREDO PEREIRA</t>
@@ -3499,7 +3508,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E343" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E344" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="5">
     <tableColumn name="Nome" id="1"/>
     <tableColumn name="Placa" id="2"/>
@@ -9542,12 +9551,29 @@
         <v>1124</v>
       </c>
       <c r="C343" s="2">
-        <v>247427.0</v>
+        <v>3027497.0</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="E343" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C344" s="2">
+        <v>247427.0</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E344" s="3" t="s">
         <v>103</v>
       </c>
     </row>
